--- a/modele/ventilation.xlsx
+++ b/modele/ventilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB3731-6040-4A5E-AEB6-58F8B572E590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB1B38-DB65-4E62-8F07-3BDED2B8A93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="6" r:id="rId1"/>
@@ -1368,13 +1368,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2ABFF6A7-9C13-4764-8557-1D7B2230A0F5}" name="correspondance" displayName="correspondance" ref="A1:H270" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:H270" xr:uid="{2ABFF6A7-9C13-4764-8557-1D7B2230A0F5}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="presence_echangeur_thermique"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H270" xr:uid="{2ABFF6A7-9C13-4764-8557-1D7B2230A0F5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A71:H80">
     <sortCondition ref="B1:B270"/>
   </sortState>
@@ -3043,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD43E4C5-3373-49CB-9C2C-04236F3647A3}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,7 +3080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -3182,7 +3176,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3206,7 +3200,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3230,7 +3224,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3248,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3296,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +3320,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3344,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3374,7 +3368,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -3398,7 +3392,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3422,7 +3416,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3446,7 +3440,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +3488,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -3518,7 +3512,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -3542,7 +3536,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3560,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3584,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -3614,7 +3608,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3656,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -3686,7 +3680,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3728,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -3758,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -3782,7 +3776,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3800,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3824,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -3874,7 +3868,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -3898,7 +3892,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +3916,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -3946,7 +3940,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -3970,7 +3964,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -3994,7 +3988,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -4018,7 +4012,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -4042,7 +4036,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -4090,7 +4084,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>11</v>
       </c>
@@ -4114,7 +4108,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -4162,7 +4156,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -4186,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
@@ -4210,7 +4204,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
@@ -4234,7 +4228,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>11</v>
       </c>
@@ -4258,7 +4252,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>11</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>11</v>
       </c>
@@ -4306,7 +4300,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -4330,7 +4324,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>11</v>
       </c>
@@ -4354,7 +4348,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>11</v>
       </c>
@@ -4378,7 +4372,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4396,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>11</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>11</v>
       </c>
@@ -4448,7 +4442,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>11</v>
       </c>
@@ -4472,7 +4466,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>11</v>
       </c>
@@ -4496,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -4520,7 +4514,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>11</v>
       </c>
@@ -4544,7 +4538,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>11</v>
       </c>
@@ -4568,7 +4562,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>11</v>
       </c>
@@ -4592,7 +4586,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
@@ -4616,7 +4610,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4632,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
@@ -4662,7 +4656,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>11</v>
       </c>
@@ -4686,7 +4680,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>11</v>
       </c>
@@ -4710,7 +4704,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>11</v>
       </c>
@@ -4974,7 +4968,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>11</v>
       </c>
@@ -4999,7 +4993,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>11</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>11</v>
       </c>
@@ -5051,7 +5045,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>11</v>
       </c>
@@ -5078,7 +5072,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>11</v>
       </c>
@@ -5132,7 +5126,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>11</v>
       </c>
@@ -5159,7 +5153,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>11</v>
       </c>
@@ -5186,7 +5180,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>11</v>
       </c>
@@ -5213,7 +5207,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>11</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>VMC Simple flux gaz</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>11</v>
       </c>
@@ -5267,7 +5261,7 @@
         <v>VMC Simple flux gaz</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>11</v>
       </c>
@@ -5294,7 +5288,7 @@
         <v>VMC Simple flux gaz</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -5321,7 +5315,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>11</v>
       </c>
@@ -5348,7 +5342,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>11</v>
       </c>
@@ -5375,7 +5369,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5396,7 @@
         <v>VMC Basse pression</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>11</v>
       </c>
@@ -5429,7 +5423,7 @@
         <v>VMC Basse pression</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>11</v>
       </c>
@@ -5456,7 +5450,7 @@
         <v>VMC Basse pression</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>11</v>
       </c>
@@ -5483,7 +5477,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>11</v>
       </c>
@@ -5510,7 +5504,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>11</v>
       </c>
@@ -5564,7 +5558,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>11</v>
       </c>
@@ -5591,7 +5585,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>11</v>
       </c>
@@ -5618,7 +5612,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>11</v>
       </c>
@@ -5643,7 +5637,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>11</v>
       </c>
@@ -5670,7 +5664,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5691,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>11</v>
       </c>
@@ -5724,7 +5718,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -5751,7 +5745,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>11</v>
       </c>
@@ -5778,7 +5772,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>11</v>
       </c>
@@ -5805,7 +5799,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>11</v>
       </c>
@@ -5832,7 +5826,7 @@
         <v>Ventilation mécanique sur conduit</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>11</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>Ventilation mécanique sur conduit</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>11</v>
       </c>
@@ -5884,7 +5878,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>11</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>11</v>
       </c>
@@ -5938,7 +5932,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -5965,7 +5959,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>11</v>
       </c>
@@ -5992,7 +5986,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>11</v>
       </c>
@@ -6019,7 +6013,7 @@
         <v>Ventilation naturelle</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>11</v>
       </c>
@@ -6046,7 +6040,7 @@
         <v>Ventilation naturelle</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>11</v>
       </c>
@@ -6073,7 +6067,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>11</v>
       </c>
@@ -6100,7 +6094,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>11</v>
       </c>
@@ -6127,7 +6121,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>11</v>
       </c>
@@ -6154,7 +6148,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -6181,7 +6175,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>11</v>
       </c>
@@ -6208,7 +6202,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>11</v>
       </c>
@@ -6235,7 +6229,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>11</v>
       </c>
@@ -6262,7 +6256,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>11</v>
       </c>
@@ -6289,7 +6283,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>11</v>
       </c>
@@ -6316,7 +6310,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>11</v>
       </c>
@@ -6343,7 +6337,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>11</v>
       </c>
@@ -6370,7 +6364,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -6397,7 +6391,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +6418,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>11</v>
       </c>
@@ -6451,7 +6445,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>11</v>
       </c>
@@ -6478,7 +6472,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>11</v>
       </c>
@@ -6505,7 +6499,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>11</v>
       </c>
@@ -6532,7 +6526,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>11</v>
       </c>
@@ -6559,7 +6553,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>11</v>
       </c>
@@ -6586,7 +6580,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>11</v>
       </c>
@@ -6613,7 +6607,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>11</v>
       </c>
@@ -6640,7 +6634,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>11</v>
       </c>
@@ -6667,7 +6661,7 @@
         <v>Ventilation naturelle</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>11</v>
       </c>
@@ -6694,7 +6688,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>11</v>
       </c>
@@ -6721,7 +6715,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>11</v>
       </c>
@@ -6748,7 +6742,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>11</v>
       </c>
@@ -6775,7 +6769,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>11</v>
       </c>
@@ -6802,7 +6796,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>11</v>
       </c>
@@ -6829,7 +6823,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>11</v>
       </c>
@@ -6856,7 +6850,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>11</v>
       </c>
@@ -6883,7 +6877,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>11</v>
       </c>
@@ -6910,7 +6904,7 @@
         <v>Ventilation naturelle</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>11</v>
       </c>
@@ -6937,7 +6931,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>11</v>
       </c>
@@ -6964,7 +6958,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>11</v>
       </c>
@@ -6991,7 +6985,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>11</v>
       </c>
@@ -7018,7 +7012,7 @@
         <v>Ventilation mécanique centralisée</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -7043,7 +7037,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>11</v>
       </c>
@@ -7068,7 +7062,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>11</v>
       </c>
@@ -7095,7 +7089,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>11</v>
       </c>
@@ -7122,7 +7116,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>11</v>
       </c>
@@ -7149,7 +7143,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>11</v>
       </c>
@@ -7176,7 +7170,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>11</v>
       </c>
@@ -7203,7 +7197,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>11</v>
       </c>
@@ -7230,7 +7224,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -7257,7 +7251,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>11</v>
       </c>
@@ -7284,7 +7278,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>11</v>
       </c>
@@ -7311,7 +7305,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>11</v>
       </c>
@@ -7338,7 +7332,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>11</v>
       </c>
@@ -7365,7 +7359,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>11</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7413,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>11</v>
       </c>
@@ -7446,7 +7440,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7467,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>11</v>
       </c>
@@ -7500,7 +7494,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>11</v>
       </c>
@@ -7527,7 +7521,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>11</v>
       </c>
@@ -7554,7 +7548,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>11</v>
       </c>
@@ -7581,7 +7575,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>11</v>
       </c>
@@ -7608,7 +7602,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>11</v>
       </c>
@@ -7635,7 +7629,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>11</v>
       </c>
@@ -7662,7 +7656,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -7689,7 +7683,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>11</v>
       </c>
@@ -7716,7 +7710,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +7737,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>11</v>
       </c>
@@ -7770,7 +7764,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +7791,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>11</v>
       </c>
@@ -7824,7 +7818,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>11</v>
       </c>
@@ -7851,7 +7845,7 @@
         <v>Extraction hygroréglable</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>11</v>
       </c>
@@ -7878,7 +7872,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>11</v>
       </c>
@@ -7905,7 +7899,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>11</v>
       </c>
@@ -7932,7 +7926,7 @@
         <v>Extraction autoréglable</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>11</v>
       </c>
@@ -7959,7 +7953,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>11</v>
       </c>
@@ -7986,7 +7980,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>11</v>
       </c>
@@ -8013,7 +8007,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>11</v>
       </c>
@@ -8040,7 +8034,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>11</v>
       </c>
@@ -8065,7 +8059,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>11</v>
       </c>
@@ -8092,7 +8086,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>11</v>
       </c>
@@ -8119,7 +8113,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>11</v>
       </c>
@@ -8146,7 +8140,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>11</v>
       </c>
@@ -8173,7 +8167,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>11</v>
       </c>
@@ -8200,7 +8194,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>11</v>
       </c>
@@ -8227,7 +8221,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>11</v>
       </c>
@@ -8254,7 +8248,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>11</v>
       </c>
@@ -8281,7 +8275,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>11</v>
       </c>
@@ -8308,7 +8302,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>11</v>
       </c>
@@ -8335,7 +8329,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>11</v>
       </c>
@@ -8362,7 +8356,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>11</v>
       </c>
@@ -8389,7 +8383,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>11</v>
       </c>
@@ -8416,7 +8410,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>11</v>
       </c>
@@ -8443,7 +8437,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>11</v>
       </c>
@@ -8470,7 +8464,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>11</v>
       </c>
@@ -8497,7 +8491,7 @@
         <v>Insufflation autoréglable</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>11</v>
       </c>
@@ -8524,7 +8518,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>11</v>
       </c>
@@ -8551,7 +8545,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>11</v>
       </c>
@@ -8578,7 +8572,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>11</v>
       </c>
@@ -8605,7 +8599,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>11</v>
       </c>
@@ -8632,7 +8626,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>11</v>
       </c>
@@ -8659,7 +8653,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>11</v>
       </c>
@@ -8686,7 +8680,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>11</v>
       </c>
@@ -8711,7 +8705,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>11</v>
       </c>
@@ -8738,7 +8732,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>11</v>
       </c>
@@ -8765,7 +8759,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>11</v>
       </c>
@@ -8792,7 +8786,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>11</v>
       </c>
@@ -8819,7 +8813,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>11</v>
       </c>
@@ -8846,7 +8840,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>11</v>
       </c>
@@ -8873,7 +8867,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>11</v>
       </c>
@@ -8900,7 +8894,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>11</v>
       </c>
@@ -8927,7 +8921,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>11</v>
       </c>
@@ -8954,7 +8948,7 @@
         <v>Insufflation hygroréglable</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>11</v>
       </c>
@@ -8981,7 +8975,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>11</v>
       </c>
@@ -9008,7 +9002,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>11</v>
       </c>
@@ -9035,7 +9029,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>11</v>
       </c>
@@ -9062,7 +9056,7 @@
         <v>Inconnu</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>11</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>Ventilation naturelle</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>11</v>
       </c>
@@ -9116,7 +9110,7 @@
         <v>Ventilation naturelle</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>11</v>
       </c>
@@ -9143,7 +9137,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>11</v>
       </c>
@@ -9170,7 +9164,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>11</v>
       </c>
@@ -9197,7 +9191,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>11</v>
       </c>
@@ -9224,7 +9218,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>11</v>
       </c>
@@ -9251,7 +9245,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>11</v>
       </c>
@@ -9278,7 +9272,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>11</v>
       </c>
@@ -9305,7 +9299,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>11</v>
       </c>
@@ -9332,7 +9326,7 @@
         <v>VMC Simple flux gaz</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>11</v>
       </c>
@@ -9359,7 +9353,7 @@
         <v>VMC Simple flux gaz</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>11</v>
       </c>
@@ -9386,7 +9380,7 @@
         <v>VMC Simple flux gaz</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>11</v>
       </c>
@@ -9413,7 +9407,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>11</v>
       </c>
@@ -9440,7 +9434,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>11</v>
       </c>
@@ -9467,7 +9461,7 @@
         <v>VMC Simple flux</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>11</v>
       </c>
@@ -9494,7 +9488,7 @@
         <v>VMC Basse pression</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>11</v>
       </c>
@@ -9521,7 +9515,7 @@
         <v>VMC Basse pression</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>11</v>
       </c>
@@ -9548,7 +9542,7 @@
         <v>VMC Basse pression</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>11</v>
       </c>
@@ -9575,7 +9569,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>11</v>
       </c>
@@ -9602,7 +9596,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>11</v>
       </c>
@@ -9629,7 +9623,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>11</v>
       </c>
@@ -9656,7 +9650,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>11</v>
       </c>
@@ -9683,7 +9677,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>11</v>
       </c>
@@ -9710,7 +9704,7 @@
         <v>VMC Double Flux</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>11</v>
       </c>
@@ -9737,7 +9731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>11</v>
       </c>
@@ -9764,7 +9758,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>11</v>
       </c>
@@ -9791,7 +9785,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>11</v>
       </c>
@@ -9818,7 +9812,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>11</v>
       </c>
@@ -9845,7 +9839,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>11</v>
       </c>
@@ -9872,7 +9866,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>11</v>
       </c>
@@ -9899,7 +9893,7 @@
         <v>Ventilation hybride</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>11</v>
       </c>
@@ -9926,7 +9920,7 @@
         <v>Ventilation mécanique sur conduit</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>11</v>
       </c>
@@ -9953,7 +9947,7 @@
         <v>Ventilation mécanique sur conduit</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>11</v>
       </c>
@@ -9980,7 +9974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>11</v>
       </c>
@@ -10007,7 +10001,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>11</v>
       </c>
@@ -10034,7 +10028,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>11</v>
       </c>
@@ -10061,7 +10055,7 @@
         <v>Puits climatique</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>11</v>
       </c>
@@ -10440,8 +10434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E209C43-78E3-4890-896B-AC7000D28EAC}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/modele/ventilation.xlsx
+++ b/modele/ventilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB1B38-DB65-4E62-8F07-3BDED2B8A93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE4A3D7-4501-46EF-9F87-04E368173185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10434,7 +10434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E209C43-78E3-4890-896B-AC7000D28EAC}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
